--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H2">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>12024.16356250717</v>
+        <v>13.79454750389333</v>
       </c>
       <c r="R2">
-        <v>12024.16356250717</v>
+        <v>124.15092753504</v>
       </c>
       <c r="S2">
-        <v>0.01371468885946329</v>
+        <v>1.563745328520097E-05</v>
       </c>
       <c r="T2">
-        <v>0.01371468885946329</v>
+        <v>1.563745328520097E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H3">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>742245.0890356726</v>
+        <v>674.0640227919174</v>
       </c>
       <c r="R3">
-        <v>742245.0890356726</v>
+        <v>6066.576205127257</v>
       </c>
       <c r="S3">
-        <v>0.8466002978644039</v>
+        <v>0.0007641167399415089</v>
       </c>
       <c r="T3">
-        <v>0.8466002978644039</v>
+        <v>0.0007641167399415086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H4">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I4">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J4">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>107493.0915419284</v>
+        <v>98.7058245322427</v>
       </c>
       <c r="R4">
-        <v>107493.0915419284</v>
+        <v>888.3524207901842</v>
       </c>
       <c r="S4">
-        <v>0.1226059756569013</v>
+        <v>0.0001118925952202893</v>
       </c>
       <c r="T4">
-        <v>0.1226059756569013</v>
+        <v>0.0001118925952202893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.58633023565</v>
+        <v>7285.701009</v>
       </c>
       <c r="H5">
-        <v>126.58633023565</v>
+        <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477925</v>
       </c>
       <c r="J5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>208.9294558602558</v>
+        <v>15193.01802808788</v>
       </c>
       <c r="R5">
-        <v>208.9294558602558</v>
+        <v>136737.1622527909</v>
       </c>
       <c r="S5">
-        <v>0.0002383036845602349</v>
+        <v>0.01722275483181935</v>
       </c>
       <c r="T5">
-        <v>0.0002383036845602349</v>
+        <v>0.01722275483181934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.58633023565</v>
+        <v>7285.701009</v>
       </c>
       <c r="H6">
-        <v>126.58633023565</v>
+        <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477925</v>
       </c>
       <c r="J6">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>12897.10188663094</v>
+        <v>742399.6218413566</v>
       </c>
       <c r="R6">
-        <v>12897.10188663094</v>
+        <v>6681596.59657221</v>
       </c>
       <c r="S6">
-        <v>0.01471035707759942</v>
+        <v>0.8415817483116808</v>
       </c>
       <c r="T6">
-        <v>0.01471035707759942</v>
+        <v>0.8415817483116804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7285.701009</v>
+      </c>
+      <c r="H7">
+        <v>21857.103027</v>
+      </c>
+      <c r="I7">
+        <v>0.9820406017477925</v>
+      </c>
+      <c r="J7">
+        <v>0.9820406017477923</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.921347</v>
+      </c>
+      <c r="N7">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P7">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q7">
+        <v>108712.4728935391</v>
+      </c>
+      <c r="R7">
+        <v>978412.2560418523</v>
+      </c>
+      <c r="S7">
+        <v>0.1232360986042925</v>
+      </c>
+      <c r="T7">
+        <v>0.1232360986042924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H8">
+        <v>379.873909</v>
+      </c>
+      <c r="I8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.08532</v>
+      </c>
+      <c r="N8">
+        <v>6.25596</v>
+      </c>
+      <c r="O8">
+        <v>0.01753772176136817</v>
+      </c>
+      <c r="P8">
+        <v>0.01753772176136816</v>
+      </c>
+      <c r="Q8">
+        <v>264.0528866386267</v>
+      </c>
+      <c r="R8">
+        <v>2376.47597974764</v>
+      </c>
+      <c r="S8">
+        <v>0.0002993294762636181</v>
+      </c>
+      <c r="T8">
+        <v>0.000299329476263618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>126.58633023565</v>
-      </c>
-      <c r="H7">
-        <v>126.58633023565</v>
-      </c>
-      <c r="I7">
-        <v>0.01707903761923153</v>
-      </c>
-      <c r="J7">
-        <v>0.01707903761923153</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="N7">
-        <v>14.7549771648983</v>
-      </c>
-      <c r="O7">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="P7">
-        <v>0.1247363525139732</v>
-      </c>
-      <c r="Q7">
-        <v>1867.778412015291</v>
-      </c>
-      <c r="R7">
-        <v>1867.778412015291</v>
-      </c>
-      <c r="S7">
-        <v>0.002130376857071873</v>
-      </c>
-      <c r="T7">
-        <v>0.002130376857071873</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H9">
+        <v>379.873909</v>
+      </c>
+      <c r="I9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>101.898173</v>
+      </c>
+      <c r="N9">
+        <v>305.694519</v>
+      </c>
+      <c r="O9">
+        <v>0.8569724579756384</v>
+      </c>
+      <c r="P9">
+        <v>0.8569724579756383</v>
+      </c>
+      <c r="Q9">
+        <v>12902.81909915609</v>
+      </c>
+      <c r="R9">
+        <v>116125.3718924048</v>
+      </c>
+      <c r="S9">
+        <v>0.01462659292401625</v>
+      </c>
+      <c r="T9">
+        <v>0.01462659292401624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H10">
+        <v>379.873909</v>
+      </c>
+      <c r="I10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.921347</v>
+      </c>
+      <c r="N10">
+        <v>44.76404100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="P10">
+        <v>0.1254898202629935</v>
+      </c>
+      <c r="Q10">
+        <v>1889.410137478475</v>
+      </c>
+      <c r="R10">
+        <v>17004.69123730627</v>
+      </c>
+      <c r="S10">
+        <v>0.002141829063480766</v>
+      </c>
+      <c r="T10">
+        <v>0.002141829063480765</v>
       </c>
     </row>
   </sheetData>
